--- a/StructureDefinition-ext-R5-SubstanceDefinition.name.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.name.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -850,6 +850,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.name.source` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.name.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `SubstanceDefinition.name.source` is mapped to FHIR R4 element `SubstanceSpecification.name.source`.</t>
   </si>
   <si>
@@ -1209,7 +1210,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="175.625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="198.98828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.name.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.name.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SubstanceDefinition.name` 0..* `BackboneElement`
 *  R4: `SubstanceSpecification.name` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `SubstanceDefinition.name` is mapped to FHIR R4 element `SubstanceSpecification.name`.</t>
+Element `SubstanceDefinition.name` has is mapped to FHIR R4 element `SubstanceSpecification.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +142,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:SubstanceSpecification.name</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,8 +340,8 @@
     <t>The actual name.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.name` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.name` is mapped to FHIR R4 element `SubstanceSpecification.name.name`.</t>
+    <t>Element `SubstanceDefinition.name.name` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.name` has is mapped to FHIR R4 element `SubstanceSpecification.name.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -422,8 +422,8 @@
     <t>Name type, for example 'systematic',  'scientific, 'brand'.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.type` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.type` is mapped to FHIR R4 element `SubstanceSpecification.name.type`.</t>
+    <t>Element `SubstanceDefinition.name.type` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.type` has is mapped to FHIR R4 element `SubstanceSpecification.name.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -466,8 +466,8 @@
     <t>The status of the name, for example 'current', 'proposed'.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.status` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.status` is mapped to FHIR R4 element `SubstanceSpecification.name.status`.</t>
+    <t>Element `SubstanceDefinition.name.status` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.status` has is mapped to FHIR R4 element `SubstanceSpecification.name.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -503,8 +503,8 @@
     <t>If this is the preferred name for this substance.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.preferred` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.preferred` is mapped to FHIR R4 element `SubstanceSpecification.name.preferred`.</t>
+    <t>Element `SubstanceDefinition.name.preferred` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.preferred` has is mapped to FHIR R4 element `SubstanceSpecification.name.preferred`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>
@@ -538,8 +538,8 @@
     <t>Human language that the name is written in.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.language` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.language` is mapped to FHIR R4 element `SubstanceSpecification.name.language`.</t>
+    <t>Element `SubstanceDefinition.name.language` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.language` has is mapped to FHIR R4 element `SubstanceSpecification.name.language`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -569,8 +569,8 @@
     <t>The use context of this name for example if there is a different name a drug active ingredient as opposed to a food colour additive.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.domain` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.domain` is mapped to FHIR R4 element `SubstanceSpecification.name.domain`.</t>
+    <t>Element `SubstanceDefinition.name.domain` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.domain` has is mapped to FHIR R4 element `SubstanceSpecification.name.domain`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:domain.id</t>
@@ -606,8 +606,8 @@
     <t>The jurisdiction where this name applies.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.jurisdiction` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.jurisdiction` is mapped to FHIR R4 element `SubstanceSpecification.name.jurisdiction`.</t>
+    <t>Element `SubstanceDefinition.name.jurisdiction` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.jurisdiction` has is mapped to FHIR R4 element `SubstanceSpecification.name.jurisdiction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.id</t>
@@ -643,8 +643,8 @@
     <t>A synonym of this particular name, by which the substance is also known.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.synonym` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.synonym` is mapped to FHIR R4 element `SubstanceSpecification.name.synonym`.</t>
+    <t>Element `SubstanceDefinition.name.synonym` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.synonym` has is mapped to FHIR R4 element `SubstanceSpecification.name.synonym`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:synonym.id</t>
@@ -681,8 +681,8 @@
     <t>A translation for this name into another human language.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.translation` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.translation` is mapped to FHIR R4 element `SubstanceSpecification.name.translation`.</t>
+    <t>Element `SubstanceDefinition.name.translation` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.translation` has is mapped to FHIR R4 element `SubstanceSpecification.name.translation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:translation.id</t>
@@ -709,8 +709,8 @@
     <t>Details of the official nature of this name.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.official` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.name.official` is mapped to FHIR R4 element `SubstanceSpecification.name.official`.</t>
+    <t>Element `SubstanceDefinition.name.official` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
+Element `SubstanceDefinition.name.official` has is mapped to FHIR R4 element `SubstanceSpecification.name.official`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:official.id</t>
@@ -731,7 +731,8 @@
     <t>Which authority uses this official name.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.official.authority` is mapped to FHIR R4 element `SubstanceSpecification.name.official.authority`.</t>
+    <t>Element `SubstanceDefinition.name.official.authority` is part of an existing definition because parent element `SubstanceDefinition.name.official` requires a cross-version extension.
+Element `SubstanceDefinition.name.official.authority` has is mapped to FHIR R4 element `SubstanceSpecification.name.official.authority`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:official.extension:authority.id</t>
@@ -776,7 +777,8 @@
     <t>The status of the official name, for example 'draft', 'active', 'retired'.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.official.status` is mapped to FHIR R4 element `SubstanceSpecification.name.official.status`.</t>
+    <t>Element `SubstanceDefinition.name.official.status` is part of an existing definition because parent element `SubstanceDefinition.name.official` requires a cross-version extension.
+Element `SubstanceDefinition.name.official.status` has is mapped to FHIR R4 element `SubstanceSpecification.name.official.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:official.extension:status.id</t>
@@ -806,7 +808,8 @@
     <t>Date of the official name change.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.official.date` is mapped to FHIR R4 element `SubstanceSpecification.name.official.date`.</t>
+    <t>Element `SubstanceDefinition.name.official.date` is part of an existing definition because parent element `SubstanceDefinition.name.official` requires a cross-version extension.
+Element `SubstanceDefinition.name.official.date` has is mapped to FHIR R4 element `SubstanceSpecification.name.official.date`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:official.extension:date.id</t>
@@ -849,9 +852,9 @@
     <t>Supporting literature.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name.source` is part of an existing definition because parent element `SubstanceDefinition.name` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `SubstanceDefinition.name.source` is part of an existing definition because parent element `SubstanceDefinition.name` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.name.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.name.source` is mapped to FHIR R4 element `SubstanceSpecification.name.source`.</t>
+Element `SubstanceDefinition.name.source` has is mapped to FHIR R4 element `SubstanceSpecification.name.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:source.id</t>
